--- a/data/trans_dic/iP30KDB7_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/iP30KDB7_2023-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,17%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>52,4%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>47,98%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,95; 58,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>40,24; 63,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>38,25; 58,04</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>52,8%</t>
+          <t>56,18%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>49,42%</t>
+          <t>54,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>51,19%</t>
+          <t>55,07%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>40,49; 64,17</t>
+          <t>45,13; 61,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>37,17; 62,79</t>
+          <t>49,28; 59,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41,48; 59,63</t>
+          <t>49,78; 58,6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>54,51%</t>
+          <t>57,08%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>58,35%</t>
+          <t>56,2%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>56,35%</t>
+          <t>56,59%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>50,12; 59,18</t>
+          <t>49,8; 63,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>53,43; 62,25</t>
+          <t>48,84; 63,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>53,04; 59,29</t>
+          <t>51,83; 61,46</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>55,98%</t>
+          <t>55,31%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>57,0%</t>
+          <t>54,46%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>56,45%</t>
+          <t>54,86%</t>
         </is>
       </c>
     </row>
@@ -729,81 +729,30 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>49,31; 62,82</t>
+          <t>47,76; 59,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>49,79; 63,62</t>
+          <t>50,76; 58,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>52,1; 61,52</t>
+          <t>50,48; 57,37</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>54,73%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>57,42%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>56,01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>51,46; 58,47</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>53,65; 61,13</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>53,34; 58,42</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
